--- a/日报火点统计信息.xlsx
+++ b/日报火点统计信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="169">
   <si>
     <t>序号</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>临沂市平邑县东荆埠村</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人工  </t>
   </si>
   <si>
     <t>火点核实位置</t>
@@ -5306,7 +5309,7 @@
         <v>500</v>
       </c>
       <c r="O169" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5434,7 +5437,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
@@ -5449,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5481,7 +5484,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5513,7 +5516,7 @@
         <v>39</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5567,7 +5570,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5599,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5685,7 +5688,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5715,7 +5718,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5745,7 +5748,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5775,7 +5778,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5807,7 +5810,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5839,7 +5842,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5871,7 +5874,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5891,7 +5894,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>8</v>
@@ -5906,7 +5909,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5941,7 +5944,7 @@
         <v>39</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5976,7 +5979,7 @@
         <v>39</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6011,7 +6014,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6046,7 +6049,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6067,7 +6070,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="2"/>
       <c r="K26" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6140,7 +6143,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6173,7 +6176,7 @@
         <v>29</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6206,7 +6209,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6239,7 +6242,7 @@
         <v>21</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6274,7 +6277,7 @@
         <v>29</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6309,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6344,7 +6347,7 @@
         <v>21</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/日报火点统计信息.xlsx
+++ b/日报火点统计信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6980"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="记录表" sheetId="1" r:id="rId1"/>
@@ -557,14 +557,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,13 +574,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,17 +616,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,15 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +639,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,6 +675,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -689,11 +697,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,23 +722,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,22 +746,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +767,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,37 +869,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,127 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,6 +1061,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1080,6 +1093,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,6 +1127,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1113,56 +1156,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1171,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,357 +1176,336 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1898,1123 +1870,1123 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O169" sqref="O169"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25454545454545" customWidth="1"/>
-    <col min="2" max="2" width="9.12727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25833333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3727272727273" style="20" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.87272727272727" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.25454545454545" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.2545454545455" style="7" customWidth="1"/>
-    <col min="10" max="10" width="29" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.12727272727273" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14" style="9" customWidth="1"/>
-    <col min="15" max="15" width="14.3727272727273" customWidth="1"/>
-    <col min="16" max="16" width="39.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.25833333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.2583333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="29" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="39.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
-    </row>
-    <row r="2" ht="28" spans="1:15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" ht="27" spans="1:15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="31">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>43983</v>
       </c>
-      <c r="C3" s="33">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="31">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="28">
         <v>43984</v>
       </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="31">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>43985</v>
       </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="31">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>43986</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <v>117.127</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="26">
         <v>36.956</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="31">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>43987</v>
       </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="36">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="32">
         <v>43988</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="33">
         <v>2</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <v>115.558</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <v>35.358</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="47">
         <v>115.5918</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="47">
         <v>35.3767</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="47">
         <v>13600</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="33" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="27">
         <v>115.573</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="27">
         <v>35.373</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="53" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="47">
         <v>115.5582</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="47">
         <v>35.3602</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="47">
         <v>2250</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="54"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="31">
+      <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>43989</v>
       </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="54"/>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="36">
+      <c r="A11" s="31">
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="32">
         <v>43990</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="33">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <v>116.931</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="27">
         <v>35.202</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="27">
         <v>116.931</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="27">
         <v>35.2015</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="54"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="33" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="27">
         <v>115.78</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="27">
         <v>34.924</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="27">
         <v>115.7805</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="27">
         <v>34.9237</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="54"/>
+      <c r="P12" s="48"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="33" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="27">
         <v>116.018</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="27">
         <v>34.621</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="27">
         <v>116.1156</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="27">
         <v>34.6249</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="33" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="27">
         <v>115.896</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="27">
         <v>34.603</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31" t="s">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="27">
         <v>115.896</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="27">
         <v>34.5903</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="33" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="27">
         <v>116.018</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <v>34.825</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="27">
         <v>116.0123</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="27">
         <v>34.8257</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="30">
         <v>22210</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="31">
+      <c r="A16" s="27">
         <v>9</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>43991</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="29">
         <v>1</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="27">
         <v>118.181</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>34.4847</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="27">
         <v>118.1812</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="27">
         <v>34.4847</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="31">
+      <c r="A17" s="27">
         <v>10</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="28">
         <v>43992</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="27">
         <v>115.665</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="27">
         <v>34.606</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31" t="s">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="27">
         <v>115.6573</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="27">
         <v>34.6063</v>
       </c>
-      <c r="N17" s="46" t="s">
+      <c r="N17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="31">
+      <c r="A18" s="27">
         <v>11</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="28">
         <v>43993</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <v>1</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="27">
         <v>117.16</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="27">
         <v>36.006</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="27">
         <v>117.1778</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="27">
         <v>36.0094</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="30">
         <v>2000</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="31">
+      <c r="A19" s="27">
         <v>12</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="28">
         <v>43994</v>
       </c>
-      <c r="C19" s="33">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="31"/>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="31">
+      <c r="A20" s="27">
         <v>13</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="28">
         <v>43995</v>
       </c>
-      <c r="C20" s="33">
-        <v>0</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="31">
+      <c r="A21" s="27">
         <v>14</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="28">
         <v>43996</v>
       </c>
-      <c r="C21" s="33">
-        <v>0</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="31">
+      <c r="A22" s="27">
         <v>15</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="28">
         <v>43997</v>
       </c>
-      <c r="C22" s="33">
-        <v>0</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="31">
+      <c r="A23" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="28">
         <v>43998</v>
       </c>
-      <c r="C23" s="33">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="31">
+      <c r="A24" s="27">
         <v>17</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="28">
         <v>43999</v>
       </c>
-      <c r="C24" s="33">
-        <v>0</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="C24" s="29">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="31">
+      <c r="A25" s="27">
         <v>18</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="28">
         <v>44000</v>
       </c>
-      <c r="C25" s="33">
-        <v>0</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="31">
+      <c r="A26" s="27">
         <v>19</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="28">
         <v>44001</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="29">
         <v>1</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="27">
         <v>121.14</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="30">
         <v>36.917</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="31">
+      <c r="A27" s="27">
         <v>20</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="28">
         <v>44002</v>
       </c>
-      <c r="C27" s="33">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="36">
+      <c r="A28" s="31">
         <v>21</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="32">
         <v>44003</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="33">
         <v>5</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="27">
         <v>118.389</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="27">
         <v>37.305</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31" t="s">
+      <c r="I28" s="27"/>
+      <c r="J28" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="27">
         <v>118.3963</v>
       </c>
-      <c r="M28" s="51">
+      <c r="M28" s="45">
         <v>37.2832</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="45">
         <v>13320</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="O28" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="33" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="27">
         <v>118.389</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="27">
         <v>37.281</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31" t="s">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="27">
         <v>118.3943</v>
       </c>
-      <c r="M29" s="51">
+      <c r="M29" s="45">
         <v>37.2863</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="52" t="s">
+      <c r="O29" s="46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="33" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="27">
         <v>118.02</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="27">
         <v>37.16</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="50">
         <v>118.0059</v>
       </c>
-      <c r="M30" s="56">
+      <c r="M30" s="50">
         <v>37.1523</v>
       </c>
-      <c r="N30" s="56">
+      <c r="N30" s="50">
         <v>71940</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="33" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="27">
         <v>118.02</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="27">
         <v>37.14</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31" t="s">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="75" t="s">
+      <c r="K31" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="33" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="27">
         <v>115.7</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="27">
         <v>36.527</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31" t="s">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="75" t="s">
+      <c r="K32" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="45">
         <v>115.6947</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="45">
         <v>36.5271</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="45">
         <v>52857</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="31">
+      <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="28">
         <v>44004</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="29">
         <v>1</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="27">
         <v>116.708</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="27">
         <v>37.403</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="52"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="31">
+      <c r="A34" s="27">
         <v>23</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="28">
         <v>44005</v>
       </c>
       <c r="C34" s="1">
@@ -3022,10 +2994,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="31">
+      <c r="A35" s="27">
         <v>24</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="28">
         <v>44006</v>
       </c>
       <c r="C35" s="1">
@@ -3033,10 +3005,10 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="31">
+      <c r="A36" s="27">
         <v>25</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="28">
         <v>44007</v>
       </c>
       <c r="C36" s="1">
@@ -3044,10 +3016,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="31">
+      <c r="A37" s="27">
         <v>26</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="28">
         <v>44008</v>
       </c>
       <c r="C37" s="1">
@@ -3055,10 +3027,10 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="31">
+      <c r="A38" s="27">
         <v>27</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="28">
         <v>44009</v>
       </c>
       <c r="C38" s="1">
@@ -3066,10 +3038,10 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="31">
+      <c r="A39" s="27">
         <v>28</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="28">
         <v>44010</v>
       </c>
       <c r="C39" s="1">
@@ -3077,10 +3049,10 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="31">
+      <c r="A40" s="27">
         <v>29</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="28">
         <v>44011</v>
       </c>
       <c r="C40" s="1">
@@ -3088,10 +3060,10 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="31">
+      <c r="A41" s="27">
         <v>30</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="28">
         <v>44012</v>
       </c>
       <c r="C41" s="1">
@@ -3099,10 +3071,10 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="31">
+      <c r="A42" s="27">
         <v>31</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="28">
         <v>44013</v>
       </c>
       <c r="C42" s="1">
@@ -3110,10 +3082,10 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="31">
+      <c r="A43" s="27">
         <v>32</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="28">
         <v>44014</v>
       </c>
       <c r="C43" s="1">
@@ -3121,10 +3093,10 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="31">
+      <c r="A44" s="27">
         <v>33</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="28">
         <v>44015</v>
       </c>
       <c r="C44" s="1">
@@ -3132,10 +3104,10 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="31">
+      <c r="A45" s="27">
         <v>34</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="28">
         <v>44016</v>
       </c>
       <c r="C45" s="1">
@@ -3143,10 +3115,10 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="31">
+      <c r="A46" s="27">
         <v>35</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="28">
         <v>44017</v>
       </c>
       <c r="C46" s="1">
@@ -3154,10 +3126,10 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="31">
+      <c r="A47" s="27">
         <v>36</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="28">
         <v>44018</v>
       </c>
       <c r="C47" s="1">
@@ -3165,10 +3137,10 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="31">
+      <c r="A48" s="27">
         <v>37</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="28">
         <v>44019</v>
       </c>
       <c r="C48" s="1">
@@ -3176,10 +3148,10 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="31">
+      <c r="A49" s="27">
         <v>38</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="28">
         <v>44020</v>
       </c>
       <c r="C49" s="1">
@@ -3187,10 +3159,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="31">
+      <c r="A50" s="27">
         <v>39</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="28">
         <v>44021</v>
       </c>
       <c r="C50" s="1">
@@ -3198,10 +3170,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="31">
+      <c r="A51" s="27">
         <v>40</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="28">
         <v>44022</v>
       </c>
       <c r="C51" s="1">
@@ -3209,10 +3181,10 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="31">
+      <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="28">
         <v>44023</v>
       </c>
       <c r="C52" s="1">
@@ -3220,10 +3192,10 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="31">
+      <c r="A53" s="27">
         <v>42</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="28">
         <v>44024</v>
       </c>
       <c r="C53" s="1">
@@ -3231,10 +3203,10 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="31">
+      <c r="A54" s="27">
         <v>43</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="28">
         <v>44025</v>
       </c>
       <c r="C54" s="1">
@@ -3242,10 +3214,10 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="31">
+      <c r="A55" s="27">
         <v>44</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="28">
         <v>44026</v>
       </c>
       <c r="C55" s="1">
@@ -3253,10 +3225,10 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="31">
+      <c r="A56" s="27">
         <v>45</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="28">
         <v>44027</v>
       </c>
       <c r="C56" s="1">
@@ -3264,10 +3236,10 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="31">
+      <c r="A57" s="27">
         <v>46</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="28">
         <v>44028</v>
       </c>
       <c r="C57" s="1">
@@ -3275,10 +3247,10 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="31">
+      <c r="A58" s="27">
         <v>47</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="28">
         <v>44029</v>
       </c>
       <c r="C58" s="1">
@@ -3286,10 +3258,10 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="31">
+      <c r="A59" s="27">
         <v>48</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="28">
         <v>44030</v>
       </c>
       <c r="C59" s="1">
@@ -3297,10 +3269,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="31">
+      <c r="A60" s="27">
         <v>49</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="28">
         <v>44031</v>
       </c>
       <c r="C60" s="1">
@@ -3308,10 +3280,10 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="31">
+      <c r="A61" s="27">
         <v>50</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="28">
         <v>44032</v>
       </c>
       <c r="C61" s="1">
@@ -3319,10 +3291,10 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="31">
+      <c r="A62" s="27">
         <v>51</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="28">
         <v>44033</v>
       </c>
       <c r="C62" s="1">
@@ -3330,10 +3302,10 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="31">
+      <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="28">
         <v>44034</v>
       </c>
       <c r="C63" s="1">
@@ -3341,10 +3313,10 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="31">
+      <c r="A64" s="27">
         <v>53</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="28">
         <v>44035</v>
       </c>
       <c r="C64" s="1">
@@ -3352,10 +3324,10 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="31">
+      <c r="A65" s="27">
         <v>54</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="28">
         <v>44036</v>
       </c>
       <c r="C65" s="1">
@@ -3363,10 +3335,10 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="31">
+      <c r="A66" s="27">
         <v>55</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="28">
         <v>44037</v>
       </c>
       <c r="C66" s="1">
@@ -3374,10 +3346,10 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="31">
+      <c r="A67" s="27">
         <v>56</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="28">
         <v>44038</v>
       </c>
       <c r="C67" s="1">
@@ -3385,10 +3357,10 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="31">
+      <c r="A68" s="27">
         <v>57</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="28">
         <v>44039</v>
       </c>
       <c r="C68" s="1">
@@ -3396,10 +3368,10 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="31">
+      <c r="A69" s="27">
         <v>58</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="28">
         <v>44040</v>
       </c>
       <c r="C69" s="1">
@@ -3407,10 +3379,10 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="31">
+      <c r="A70" s="27">
         <v>59</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="28">
         <v>44041</v>
       </c>
       <c r="C70" s="1">
@@ -3418,10 +3390,10 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="31">
+      <c r="A71" s="27">
         <v>60</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="28">
         <v>44042</v>
       </c>
       <c r="C71" s="1">
@@ -3429,10 +3401,10 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="31">
+      <c r="A72" s="27">
         <v>61</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="28">
         <v>44043</v>
       </c>
       <c r="C72" s="1">
@@ -3440,10 +3412,10 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="31">
+      <c r="A73" s="27">
         <v>62</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="28">
         <v>44044</v>
       </c>
       <c r="C73" s="1">
@@ -3451,10 +3423,10 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="31">
+      <c r="A74" s="27">
         <v>63</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="28">
         <v>44045</v>
       </c>
       <c r="C74" s="1">
@@ -3462,10 +3434,10 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="31">
+      <c r="A75" s="27">
         <v>64</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="28">
         <v>44046</v>
       </c>
       <c r="C75" s="1">
@@ -3473,10 +3445,10 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="31">
+      <c r="A76" s="27">
         <v>65</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="28">
         <v>44047</v>
       </c>
       <c r="C76" s="1">
@@ -3484,10 +3456,10 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="31">
+      <c r="A77" s="27">
         <v>66</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="28">
         <v>44048</v>
       </c>
       <c r="C77" s="1">
@@ -3495,10 +3467,10 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="31">
+      <c r="A78" s="27">
         <v>67</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="28">
         <v>44049</v>
       </c>
       <c r="C78" s="1">
@@ -3506,10 +3478,10 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="31">
+      <c r="A79" s="27">
         <v>68</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="28">
         <v>44050</v>
       </c>
       <c r="C79" s="1">
@@ -3517,10 +3489,10 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="31">
+      <c r="A80" s="27">
         <v>69</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="28">
         <v>44051</v>
       </c>
       <c r="C80" s="1">
@@ -3528,10 +3500,10 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="31">
+      <c r="A81" s="27">
         <v>70</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="28">
         <v>44052</v>
       </c>
       <c r="C81" s="1">
@@ -3539,10 +3511,10 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="31">
+      <c r="A82" s="27">
         <v>71</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="28">
         <v>44053</v>
       </c>
       <c r="C82" s="1">
@@ -3550,10 +3522,10 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="31">
+      <c r="A83" s="27">
         <v>72</v>
       </c>
-      <c r="B83" s="32">
+      <c r="B83" s="28">
         <v>44054</v>
       </c>
       <c r="C83" s="1">
@@ -3561,10 +3533,10 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="31">
+      <c r="A84" s="27">
         <v>73</v>
       </c>
-      <c r="B84" s="32">
+      <c r="B84" s="28">
         <v>44055</v>
       </c>
       <c r="C84" s="1">
@@ -3572,10 +3544,10 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="31">
+      <c r="A85" s="27">
         <v>74</v>
       </c>
-      <c r="B85" s="32">
+      <c r="B85" s="28">
         <v>44056</v>
       </c>
       <c r="C85" s="1">
@@ -3583,10 +3555,10 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="31">
+      <c r="A86" s="27">
         <v>75</v>
       </c>
-      <c r="B86" s="32">
+      <c r="B86" s="28">
         <v>44057</v>
       </c>
       <c r="C86" s="1">
@@ -3594,10 +3566,10 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="31">
+      <c r="A87" s="27">
         <v>76</v>
       </c>
-      <c r="B87" s="32">
+      <c r="B87" s="28">
         <v>44058</v>
       </c>
       <c r="C87" s="1">
@@ -3605,10 +3577,10 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="31">
+      <c r="A88" s="27">
         <v>77</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="28">
         <v>44059</v>
       </c>
       <c r="C88" s="1">
@@ -3616,10 +3588,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="31">
+      <c r="A89" s="27">
         <v>78</v>
       </c>
-      <c r="B89" s="32">
+      <c r="B89" s="28">
         <v>44060</v>
       </c>
       <c r="C89" s="1">
@@ -3627,10 +3599,10 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="31">
+      <c r="A90" s="27">
         <v>79</v>
       </c>
-      <c r="B90" s="32">
+      <c r="B90" s="28">
         <v>44061</v>
       </c>
       <c r="C90" s="1">
@@ -3638,10 +3610,10 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="31">
+      <c r="A91" s="27">
         <v>80</v>
       </c>
-      <c r="B91" s="32">
+      <c r="B91" s="28">
         <v>44062</v>
       </c>
       <c r="C91" s="1">
@@ -3649,10 +3621,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="31">
+      <c r="A92" s="27">
         <v>81</v>
       </c>
-      <c r="B92" s="32">
+      <c r="B92" s="28">
         <v>44063</v>
       </c>
       <c r="C92" s="1">
@@ -3660,10 +3632,10 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="31">
+      <c r="A93" s="27">
         <v>82</v>
       </c>
-      <c r="B93" s="32">
+      <c r="B93" s="28">
         <v>44064</v>
       </c>
       <c r="C93" s="1">
@@ -3671,10 +3643,10 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="31">
+      <c r="A94" s="27">
         <v>83</v>
       </c>
-      <c r="B94" s="32">
+      <c r="B94" s="28">
         <v>44065</v>
       </c>
       <c r="C94" s="1">
@@ -3682,10 +3654,10 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="31">
+      <c r="A95" s="27">
         <v>84</v>
       </c>
-      <c r="B95" s="32">
+      <c r="B95" s="28">
         <v>44066</v>
       </c>
       <c r="C95" s="1">
@@ -3693,10 +3665,10 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="31">
+      <c r="A96" s="27">
         <v>85</v>
       </c>
-      <c r="B96" s="32">
+      <c r="B96" s="28">
         <v>44067</v>
       </c>
       <c r="C96" s="1">
@@ -3704,10 +3676,10 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="31">
+      <c r="A97" s="27">
         <v>86</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="28">
         <v>44068</v>
       </c>
       <c r="C97" s="1">
@@ -3715,10 +3687,10 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="31">
+      <c r="A98" s="27">
         <v>87</v>
       </c>
-      <c r="B98" s="32">
+      <c r="B98" s="28">
         <v>44069</v>
       </c>
       <c r="C98" s="1">
@@ -3726,10 +3698,10 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="31">
+      <c r="A99" s="27">
         <v>88</v>
       </c>
-      <c r="B99" s="32">
+      <c r="B99" s="28">
         <v>44070</v>
       </c>
       <c r="C99" s="1">
@@ -3737,10 +3709,10 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="31">
+      <c r="A100" s="27">
         <v>89</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="28">
         <v>44071</v>
       </c>
       <c r="C100" s="1">
@@ -3748,10 +3720,10 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="31">
+      <c r="A101" s="27">
         <v>90</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="28">
         <v>44072</v>
       </c>
       <c r="C101" s="1">
@@ -3759,10 +3731,10 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="31">
+      <c r="A102" s="27">
         <v>91</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="28">
         <v>44073</v>
       </c>
       <c r="C102" s="1">
@@ -3770,10 +3742,10 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="31">
+      <c r="A103" s="27">
         <v>92</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="28">
         <v>44074</v>
       </c>
       <c r="C103" s="1">
@@ -3781,10 +3753,10 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="31">
+      <c r="A104" s="27">
         <v>93</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="28">
         <v>44075</v>
       </c>
       <c r="C104" s="1">
@@ -3792,10 +3764,10 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="31">
+      <c r="A105" s="27">
         <v>94</v>
       </c>
-      <c r="B105" s="32">
+      <c r="B105" s="28">
         <v>44076</v>
       </c>
       <c r="C105" s="1">
@@ -3803,10 +3775,10 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="31">
+      <c r="A106" s="27">
         <v>95</v>
       </c>
-      <c r="B106" s="32">
+      <c r="B106" s="28">
         <v>44077</v>
       </c>
       <c r="C106" s="1">
@@ -3814,10 +3786,10 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="31">
+      <c r="A107" s="27">
         <v>96</v>
       </c>
-      <c r="B107" s="32">
+      <c r="B107" s="28">
         <v>44078</v>
       </c>
       <c r="C107" s="1">
@@ -3825,10 +3797,10 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="31">
+      <c r="A108" s="27">
         <v>97</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="28">
         <v>44079</v>
       </c>
       <c r="C108" s="1">
@@ -3836,10 +3808,10 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="31">
+      <c r="A109" s="27">
         <v>98</v>
       </c>
-      <c r="B109" s="32">
+      <c r="B109" s="28">
         <v>44080</v>
       </c>
       <c r="C109" s="1">
@@ -3847,10 +3819,10 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="31">
+      <c r="A110" s="27">
         <v>99</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="28">
         <v>44081</v>
       </c>
       <c r="C110" s="1">
@@ -3858,10 +3830,10 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="31">
+      <c r="A111" s="27">
         <v>100</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="28">
         <v>44082</v>
       </c>
       <c r="C111" s="1">
@@ -3869,10 +3841,10 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="31">
+      <c r="A112" s="27">
         <v>101</v>
       </c>
-      <c r="B112" s="32">
+      <c r="B112" s="28">
         <v>44083</v>
       </c>
       <c r="C112" s="1">
@@ -3880,10 +3852,10 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="31">
+      <c r="A113" s="27">
         <v>102</v>
       </c>
-      <c r="B113" s="32">
+      <c r="B113" s="28">
         <v>44084</v>
       </c>
       <c r="C113" s="1">
@@ -3891,10 +3863,10 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="31">
+      <c r="A114" s="27">
         <v>103</v>
       </c>
-      <c r="B114" s="32">
+      <c r="B114" s="28">
         <v>44085</v>
       </c>
       <c r="C114" s="1">
@@ -3902,10 +3874,10 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="31">
+      <c r="A115" s="27">
         <v>104</v>
       </c>
-      <c r="B115" s="32">
+      <c r="B115" s="28">
         <v>44086</v>
       </c>
       <c r="C115" s="1">
@@ -3913,10 +3885,10 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="31">
+      <c r="A116" s="27">
         <v>105</v>
       </c>
-      <c r="B116" s="32">
+      <c r="B116" s="28">
         <v>44087</v>
       </c>
       <c r="C116" s="1">
@@ -3924,10 +3896,10 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="31">
+      <c r="A117" s="27">
         <v>106</v>
       </c>
-      <c r="B117" s="32">
+      <c r="B117" s="28">
         <v>44088</v>
       </c>
       <c r="C117" s="1">
@@ -3935,10 +3907,10 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="31">
+      <c r="A118" s="27">
         <v>107</v>
       </c>
-      <c r="B118" s="32">
+      <c r="B118" s="28">
         <v>44089</v>
       </c>
       <c r="C118" s="1">
@@ -3946,10 +3918,10 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="31">
+      <c r="A119" s="27">
         <v>108</v>
       </c>
-      <c r="B119" s="32">
+      <c r="B119" s="28">
         <v>44090</v>
       </c>
       <c r="C119" s="1">
@@ -3957,10 +3929,10 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="31">
+      <c r="A120" s="27">
         <v>109</v>
       </c>
-      <c r="B120" s="32">
+      <c r="B120" s="28">
         <v>44091</v>
       </c>
       <c r="C120" s="1">
@@ -3968,10 +3940,10 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="31">
+      <c r="A121" s="27">
         <v>110</v>
       </c>
-      <c r="B121" s="32">
+      <c r="B121" s="28">
         <v>44092</v>
       </c>
       <c r="C121" s="1">
@@ -3979,10 +3951,10 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="31">
+      <c r="A122" s="27">
         <v>111</v>
       </c>
-      <c r="B122" s="32">
+      <c r="B122" s="28">
         <v>44093</v>
       </c>
       <c r="C122" s="1">
@@ -3990,10 +3962,10 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="31">
+      <c r="A123" s="27">
         <v>112</v>
       </c>
-      <c r="B123" s="32">
+      <c r="B123" s="28">
         <v>44094</v>
       </c>
       <c r="C123" s="1">
@@ -4001,10 +3973,10 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="31">
+      <c r="A124" s="27">
         <v>113</v>
       </c>
-      <c r="B124" s="32">
+      <c r="B124" s="28">
         <v>44095</v>
       </c>
       <c r="C124" s="1">
@@ -4012,10 +3984,10 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="31">
+      <c r="A125" s="27">
         <v>114</v>
       </c>
-      <c r="B125" s="32">
+      <c r="B125" s="28">
         <v>44096</v>
       </c>
       <c r="C125" s="1">
@@ -4023,10 +3995,10 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="31">
+      <c r="A126" s="27">
         <v>115</v>
       </c>
-      <c r="B126" s="32">
+      <c r="B126" s="28">
         <v>44097</v>
       </c>
       <c r="C126" s="1">
@@ -4034,10 +4006,10 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="31">
+      <c r="A127" s="27">
         <v>116</v>
       </c>
-      <c r="B127" s="32">
+      <c r="B127" s="28">
         <v>44098</v>
       </c>
       <c r="C127" s="1">
@@ -4045,10 +4017,10 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="31">
+      <c r="A128" s="27">
         <v>117</v>
       </c>
-      <c r="B128" s="32">
+      <c r="B128" s="28">
         <v>44099</v>
       </c>
       <c r="C128" s="1">
@@ -4056,21 +4028,21 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="31">
+      <c r="A129" s="27">
         <v>118</v>
       </c>
-      <c r="B129" s="32">
+      <c r="B129" s="28">
         <v>44100</v>
       </c>
       <c r="C129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="28" spans="1:16">
-      <c r="A130" s="31">
+    <row r="130" ht="27" spans="1:16">
+      <c r="A130" s="27">
         <v>119</v>
       </c>
-      <c r="B130" s="32">
+      <c r="B130" s="28">
         <v>44101</v>
       </c>
       <c r="C130" s="1">
@@ -4079,7 +4051,7 @@
       <c r="D130" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E130" s="58" t="s">
+      <c r="E130" s="52" t="s">
         <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -4091,13 +4063,13 @@
       <c r="H130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I130" s="63" t="s">
+      <c r="I130" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="64" t="s">
+      <c r="K130" s="58" t="s">
         <v>7</v>
       </c>
       <c r="L130" s="5" t="s">
@@ -4109,25 +4081,25 @@
       <c r="N130" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O130" s="12" t="s">
+      <c r="O130" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P130" s="65"/>
+      <c r="P130" s="59"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="36">
+      <c r="A131" s="31">
         <v>120</v>
       </c>
-      <c r="B131" s="37">
+      <c r="B131" s="32">
         <v>44102</v>
       </c>
-      <c r="C131" s="59">
+      <c r="C131" s="53">
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E131" s="76" t="s">
+      <c r="E131" s="69" t="s">
         <v>78</v>
       </c>
       <c r="F131" s="2">
@@ -4139,11 +4111,11 @@
       <c r="H131" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I131" s="63"/>
-      <c r="J131" s="6" t="s">
+      <c r="I131" s="57"/>
+      <c r="J131" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K131" s="76" t="s">
+      <c r="K131" s="69" t="s">
         <v>78</v>
       </c>
       <c r="L131" s="5">
@@ -4155,25 +4127,25 @@
       <c r="N131" s="5">
         <v>39000</v>
       </c>
-      <c r="O131" s="66" t="s">
+      <c r="O131" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P131" s="54"/>
+      <c r="P131" s="48"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="39"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="59"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="53"/>
       <c r="D132" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="6">
         <v>117.23</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="6">
         <v>34.969</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -4182,19 +4154,19 @@
       <c r="I132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J132" s="7" t="s">
+      <c r="J132" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O132" s="66" t="s">
+      <c r="O132" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P132" s="54"/>
+      <c r="P132" s="48"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="31">
+      <c r="A133" s="27">
         <v>121</v>
       </c>
-      <c r="B133" s="32">
+      <c r="B133" s="28">
         <v>44103</v>
       </c>
       <c r="C133" s="1">
@@ -4202,10 +4174,10 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="31">
+      <c r="A134" s="27">
         <v>122</v>
       </c>
-      <c r="B134" s="32">
+      <c r="B134" s="28">
         <v>44104</v>
       </c>
       <c r="C134" s="1">
@@ -4213,10 +4185,10 @@
       </c>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="31">
+      <c r="A135" s="27">
         <v>123</v>
       </c>
-      <c r="B135" s="32">
+      <c r="B135" s="28">
         <v>44105</v>
       </c>
       <c r="C135" s="1">
@@ -4225,13 +4197,13 @@
       <c r="D135" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="6">
         <v>117.925</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="6">
         <v>34.677</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -4240,27 +4212,27 @@
       <c r="J135" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="K135" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L135" s="7">
+      <c r="L135" s="6">
         <v>117.9245</v>
       </c>
-      <c r="M135" s="7">
+      <c r="M135" s="6">
         <v>34.6762</v>
       </c>
-      <c r="N135" s="9">
+      <c r="N135" s="2">
         <v>2664</v>
       </c>
-      <c r="O135" s="12" t="s">
+      <c r="O135" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="31">
+      <c r="A136" s="27">
         <v>124</v>
       </c>
-      <c r="B136" s="32">
+      <c r="B136" s="28">
         <v>44106</v>
       </c>
       <c r="C136" s="1">
@@ -4268,22 +4240,22 @@
       </c>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="31">
+      <c r="A137" s="27">
         <v>125</v>
       </c>
-      <c r="B137" s="32">
+      <c r="B137" s="28">
         <v>44107</v>
       </c>
       <c r="C137" s="1">
         <v>0</v>
       </c>
-      <c r="P137" s="67"/>
+      <c r="P137" s="61"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="31">
+      <c r="A138" s="27">
         <v>126</v>
       </c>
-      <c r="B138" s="32">
+      <c r="B138" s="28">
         <v>44108</v>
       </c>
       <c r="C138" s="1">
@@ -4292,13 +4264,13 @@
       <c r="D138" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="6">
         <v>120.214</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="6">
         <v>36.435</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -4307,42 +4279,42 @@
       <c r="J138" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K138" s="20" t="s">
+      <c r="K138" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L138" s="7">
+      <c r="L138" s="6">
         <v>120.2129</v>
       </c>
-      <c r="M138" s="7">
+      <c r="M138" s="6">
         <v>36.4328</v>
       </c>
-      <c r="N138" s="9">
+      <c r="N138" s="2">
         <v>9400</v>
       </c>
-      <c r="O138" s="16" t="s">
+      <c r="O138" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:16">
-      <c r="A139" s="36">
+      <c r="A139" s="31">
         <v>127</v>
       </c>
-      <c r="B139" s="37">
+      <c r="B139" s="32">
         <v>44109</v>
       </c>
-      <c r="C139" s="59">
+      <c r="C139" s="53">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E139" s="58" t="s">
+      <c r="E139" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="6">
         <v>115.533</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="6">
         <v>36.749</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -4351,112 +4323,112 @@
       <c r="J139" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K139" s="58" t="s">
+      <c r="K139" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="L139" s="7">
+      <c r="L139" s="6">
         <v>115.5173</v>
       </c>
-      <c r="M139" s="7">
+      <c r="M139" s="6">
         <v>36.7508</v>
       </c>
-      <c r="N139" s="9">
+      <c r="N139" s="2">
         <v>13500</v>
       </c>
-      <c r="O139" s="68" t="s">
+      <c r="O139" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="P139" s="54"/>
+      <c r="P139" s="48"/>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="43"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="59"/>
-      <c r="E140" s="58"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="53"/>
+      <c r="E140" s="52"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K140" s="58"/>
-      <c r="L140" s="7">
+      <c r="K140" s="52"/>
+      <c r="L140" s="6">
         <v>115.5281</v>
       </c>
-      <c r="M140" s="7">
+      <c r="M140" s="6">
         <v>36.7549</v>
       </c>
-      <c r="O140" s="68"/>
-      <c r="P140" s="54"/>
+      <c r="O140" s="62"/>
+      <c r="P140" s="48"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="43"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="59"/>
-      <c r="E141" s="58"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="53"/>
+      <c r="E141" s="52"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K141" s="58"/>
-      <c r="L141" s="7">
+      <c r="K141" s="52"/>
+      <c r="L141" s="6">
         <v>115.533</v>
       </c>
-      <c r="M141" s="7">
+      <c r="M141" s="6">
         <v>36.749</v>
       </c>
-      <c r="O141" s="68"/>
-      <c r="P141" s="54"/>
+      <c r="O141" s="62"/>
+      <c r="P141" s="48"/>
     </row>
     <row r="142" spans="1:16">
-      <c r="A142" s="39"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="59"/>
-      <c r="E142" s="58"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="53"/>
+      <c r="E142" s="52"/>
       <c r="H142" s="2"/>
-      <c r="J142" s="7" t="s">
+      <c r="J142" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K142" s="58"/>
-      <c r="L142" s="7">
+      <c r="K142" s="52"/>
+      <c r="L142" s="6">
         <v>115.5263</v>
       </c>
-      <c r="M142" s="7">
+      <c r="M142" s="6">
         <v>36.7377</v>
       </c>
-      <c r="O142" s="68"/>
-      <c r="P142" s="54"/>
+      <c r="O142" s="62"/>
+      <c r="P142" s="48"/>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="31">
+      <c r="A143" s="27">
         <v>128</v>
       </c>
-      <c r="B143" s="32">
+      <c r="B143" s="28">
         <v>44110</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
       </c>
-      <c r="P143" s="69"/>
+      <c r="P143" s="63"/>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="36">
+      <c r="A144" s="31">
         <v>129</v>
       </c>
-      <c r="B144" s="37">
+      <c r="B144" s="32">
         <v>44111</v>
       </c>
-      <c r="C144" s="59">
+      <c r="C144" s="53">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E144" s="58" t="s">
+      <c r="E144" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="6">
         <v>115.887</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="6">
         <v>35.065</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -4465,154 +4437,154 @@
       <c r="J144" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K144" s="20" t="s">
+      <c r="K144" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L144" s="7">
+      <c r="L144" s="6">
         <v>115.9443</v>
       </c>
-      <c r="M144" s="7">
+      <c r="M144" s="6">
         <v>35.0341</v>
       </c>
-      <c r="N144" s="9">
+      <c r="N144" s="2">
         <v>2000</v>
       </c>
       <c r="O144" t="s">
         <v>21</v>
       </c>
-      <c r="P144" s="69"/>
+      <c r="P144" s="63"/>
     </row>
     <row r="145" spans="1:16">
-      <c r="A145" s="43"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="59"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="53"/>
       <c r="D145" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="6">
         <v>117.325</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="6">
         <v>36.955</v>
       </c>
       <c r="H145" s="2"/>
       <c r="J145" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K145" s="20" t="s">
+      <c r="K145" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L145" s="7">
+      <c r="L145" s="6">
         <v>117.3245</v>
       </c>
-      <c r="M145" s="70">
+      <c r="M145" s="64">
         <v>36.954</v>
       </c>
-      <c r="N145" s="9">
+      <c r="N145" s="2">
         <v>13000</v>
       </c>
       <c r="O145" t="s">
         <v>29</v>
       </c>
-      <c r="P145" s="54"/>
+      <c r="P145" s="48"/>
     </row>
     <row r="146" spans="1:16">
-      <c r="A146" s="43"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="59"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="53"/>
       <c r="D146" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E146" s="61" t="s">
+      <c r="E146" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="6">
         <v>116.027</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="6">
         <v>35.71</v>
       </c>
       <c r="H146" s="2"/>
       <c r="J146" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K146" s="20" t="s">
+      <c r="K146" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="L146" s="7">
+      <c r="L146" s="6">
         <v>116.0277</v>
       </c>
-      <c r="M146" s="7">
+      <c r="M146" s="6">
         <v>35.6979</v>
       </c>
-      <c r="N146" s="9">
+      <c r="N146" s="2">
         <v>1300</v>
       </c>
       <c r="O146" t="s">
         <v>29</v>
       </c>
-      <c r="P146" s="69"/>
+      <c r="P146" s="63"/>
     </row>
     <row r="147" spans="1:16">
-      <c r="A147" s="39"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="59"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="53"/>
       <c r="D147" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="6">
         <v>117.278</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="6">
         <v>35.843</v>
       </c>
       <c r="H147" s="2"/>
       <c r="J147" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K147" s="20" t="s">
+      <c r="K147" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L147" s="7">
+      <c r="L147" s="6">
         <v>117.2713</v>
       </c>
-      <c r="M147" s="7">
+      <c r="M147" s="6">
         <v>35.8423</v>
       </c>
-      <c r="N147" s="9">
+      <c r="N147" s="2">
         <v>10000</v>
       </c>
       <c r="O147" t="s">
         <v>21</v>
       </c>
-      <c r="P147" s="69"/>
+      <c r="P147" s="63"/>
     </row>
     <row r="148" spans="1:16">
-      <c r="A148" s="36">
+      <c r="A148" s="31">
         <v>130</v>
       </c>
-      <c r="B148" s="37">
+      <c r="B148" s="32">
         <v>44112</v>
       </c>
-      <c r="C148" s="59">
+      <c r="C148" s="53">
         <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6">
         <v>115.713</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148" s="6">
         <v>35.735</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -4621,37 +4593,37 @@
       <c r="J148" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K148" s="20" t="s">
+      <c r="K148" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="L148" s="7">
+      <c r="L148" s="6">
         <v>115.7091</v>
       </c>
-      <c r="M148" s="70">
+      <c r="M148" s="64">
         <v>36.954</v>
       </c>
-      <c r="N148" s="9">
+      <c r="N148" s="2">
         <v>3000</v>
       </c>
       <c r="O148" t="s">
         <v>29</v>
       </c>
-      <c r="P148" s="69"/>
+      <c r="P148" s="63"/>
     </row>
     <row r="149" spans="1:16">
-      <c r="A149" s="39"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="59"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E149" s="58" t="s">
+      <c r="E149" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="6">
         <v>114.86</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="6">
         <v>35.08</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -4660,28 +4632,28 @@
       <c r="J149" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K149" s="20" t="s">
+      <c r="K149" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L149" s="7">
+      <c r="L149" s="6">
         <v>114.8858</v>
       </c>
-      <c r="M149" s="7">
+      <c r="M149" s="6">
         <v>35.1186</v>
       </c>
-      <c r="N149" s="9">
+      <c r="N149" s="2">
         <v>77400</v>
       </c>
       <c r="O149" t="s">
         <v>21</v>
       </c>
-      <c r="P149" s="69"/>
+      <c r="P149" s="63"/>
     </row>
     <row r="150" spans="1:16">
-      <c r="A150" s="31">
+      <c r="A150" s="27">
         <v>131</v>
       </c>
-      <c r="B150" s="32">
+      <c r="B150" s="28">
         <v>44113</v>
       </c>
       <c r="C150" s="1">
@@ -4690,268 +4662,268 @@
       <c r="D150" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="E150" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="6">
         <v>119.543</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="6">
         <v>36.204</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J150" s="7" t="s">
+      <c r="J150" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K150" s="20" t="s">
+      <c r="K150" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L150" s="7">
+      <c r="L150" s="6">
         <v>119.5429</v>
       </c>
-      <c r="M150" s="7">
+      <c r="M150" s="6">
         <v>36.2039</v>
       </c>
-      <c r="N150" s="9">
+      <c r="N150" s="2">
         <v>48910</v>
       </c>
       <c r="O150" t="s">
         <v>21</v>
       </c>
-      <c r="P150" s="69"/>
+      <c r="P150" s="63"/>
     </row>
     <row r="151" spans="1:16">
-      <c r="A151" s="31">
+      <c r="A151" s="27">
         <v>132</v>
       </c>
-      <c r="B151" s="32">
+      <c r="B151" s="28">
         <v>44114</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
       </c>
-      <c r="P151" s="69"/>
+      <c r="P151" s="63"/>
     </row>
     <row r="152" spans="1:16">
-      <c r="A152" s="31">
+      <c r="A152" s="27">
         <v>133</v>
       </c>
-      <c r="B152" s="32">
+      <c r="B152" s="28">
         <v>44115</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
       </c>
-      <c r="P152" s="69"/>
+      <c r="P152" s="63"/>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153" s="36">
+      <c r="A153" s="31">
         <v>134</v>
       </c>
-      <c r="B153" s="37">
+      <c r="B153" s="32">
         <v>44116</v>
       </c>
-      <c r="C153" s="59">
+      <c r="C153" s="53">
         <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E153" s="58" t="s">
+      <c r="E153" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="6">
         <v>119.598</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="6">
         <v>36.552</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J153" s="7" t="s">
+      <c r="J153" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L153" s="7">
+      <c r="L153" s="6">
         <v>119.5978</v>
       </c>
-      <c r="M153" s="7">
+      <c r="M153" s="6">
         <v>36.5513</v>
       </c>
-      <c r="N153" s="9">
+      <c r="N153" s="2">
         <v>10000</v>
       </c>
-      <c r="O153" s="19" t="s">
+      <c r="O153" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P153" s="69"/>
+      <c r="P153" s="63"/>
     </row>
     <row r="154" spans="1:16">
-      <c r="A154" s="39"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="59"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="53"/>
       <c r="D154" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E154" s="58" t="s">
+      <c r="E154" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="6">
         <v>117.932</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154" s="6">
         <v>37.284</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J154" s="7" t="s">
+      <c r="J154" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L154" s="7">
+      <c r="L154" s="6">
         <v>117.9332</v>
       </c>
-      <c r="M154" s="7">
+      <c r="M154" s="6">
         <v>37.2859</v>
       </c>
-      <c r="N154" s="9">
+      <c r="N154" s="2">
         <v>5000</v>
       </c>
       <c r="O154" t="s">
         <v>29</v>
       </c>
-      <c r="P154" s="69"/>
+      <c r="P154" s="63"/>
     </row>
     <row r="155" spans="1:16">
-      <c r="A155" s="31">
+      <c r="A155" s="27">
         <v>135</v>
       </c>
-      <c r="B155" s="32">
+      <c r="B155" s="28">
         <v>44117</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
       </c>
-      <c r="P155" s="69"/>
+      <c r="P155" s="63"/>
     </row>
     <row r="156" spans="1:16">
-      <c r="A156" s="31">
+      <c r="A156" s="27">
         <v>136</v>
       </c>
-      <c r="B156" s="32">
+      <c r="B156" s="28">
         <v>44118</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
       </c>
-      <c r="P156" s="69"/>
+      <c r="P156" s="63"/>
     </row>
     <row r="157" spans="1:16">
-      <c r="A157" s="31">
+      <c r="A157" s="27">
         <v>137</v>
       </c>
-      <c r="B157" s="32">
+      <c r="B157" s="28">
         <v>44119</v>
       </c>
       <c r="C157" s="1">
         <v>0</v>
       </c>
-      <c r="P157" s="69"/>
+      <c r="P157" s="63"/>
     </row>
     <row r="158" spans="1:16">
-      <c r="A158" s="36">
+      <c r="A158" s="31">
         <v>138</v>
       </c>
-      <c r="B158" s="37">
+      <c r="B158" s="32">
         <v>44120</v>
       </c>
-      <c r="C158" s="59">
+      <c r="C158" s="53">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="6">
         <v>117.161</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158" s="6">
         <v>37.49</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J158" s="71" t="s">
+      <c r="J158" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="L158" s="7">
+      <c r="L158" s="6">
         <v>117.1524</v>
       </c>
-      <c r="M158" s="7">
+      <c r="M158" s="6">
         <v>37.4867</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O158" s="66" t="s">
+      <c r="O158" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P158" s="54"/>
+      <c r="P158" s="48"/>
     </row>
     <row r="159" ht="20.25" customHeight="1" spans="1:16">
-      <c r="A159" s="43"/>
-      <c r="B159" s="44"/>
-      <c r="C159" s="59"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="53"/>
       <c r="D159" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6">
         <v>116.881</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="6">
         <v>37.702</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J159" s="71" t="s">
+      <c r="J159" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="L159" s="7">
+      <c r="L159" s="6">
         <v>116.8834</v>
       </c>
-      <c r="M159" s="7">
+      <c r="M159" s="6">
         <v>37.7033</v>
       </c>
-      <c r="N159" s="9">
+      <c r="N159" s="2">
         <v>6000</v>
       </c>
-      <c r="O159" s="66" t="s">
+      <c r="O159" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P159" s="54"/>
+      <c r="P159" s="48"/>
     </row>
     <row r="160" spans="1:16">
-      <c r="A160" s="39"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="59"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="53"/>
       <c r="D160" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E160" s="20" t="s">
+      <c r="E160" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="6">
         <v>116.77</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="6">
         <v>37.809</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -4960,25 +4932,25 @@
       <c r="J160" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L160" s="7">
+      <c r="L160" s="6">
         <v>116.7696</v>
       </c>
-      <c r="M160" s="7">
+      <c r="M160" s="6">
         <v>37.8135</v>
       </c>
       <c r="N160" s="1">
         <v>56000</v>
       </c>
-      <c r="O160" s="66" t="s">
+      <c r="O160" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P160" s="54"/>
+      <c r="P160" s="48"/>
     </row>
     <row r="161" spans="1:16">
-      <c r="A161" s="31">
+      <c r="A161" s="27">
         <v>139</v>
       </c>
-      <c r="B161" s="32">
+      <c r="B161" s="28">
         <v>44121</v>
       </c>
       <c r="C161" s="1">
@@ -4987,13 +4959,13 @@
       <c r="D161" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E161" s="20" t="s">
+      <c r="E161" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="6">
         <v>119.86</v>
       </c>
-      <c r="G161" s="7">
+      <c r="G161" s="6">
         <v>37.008</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -5002,25 +4974,25 @@
       <c r="J161" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L161" s="7">
+      <c r="L161" s="6">
         <v>119.8561</v>
       </c>
-      <c r="M161" s="7">
+      <c r="M161" s="6">
         <v>37.0056</v>
       </c>
-      <c r="N161" s="9">
+      <c r="N161" s="2">
         <v>2600</v>
       </c>
-      <c r="O161" s="66" t="s">
+      <c r="O161" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P161" s="54"/>
+      <c r="P161" s="48"/>
     </row>
     <row r="162" spans="1:16">
-      <c r="A162" s="31">
+      <c r="A162" s="27">
         <v>140</v>
       </c>
-      <c r="B162" s="32">
+      <c r="B162" s="28">
         <v>44122</v>
       </c>
       <c r="C162" s="1">
@@ -5029,13 +5001,13 @@
       <c r="D162" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E162" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="6">
         <v>119.795</v>
       </c>
-      <c r="G162" s="7">
+      <c r="G162" s="6">
         <v>37.126</v>
       </c>
       <c r="H162" s="2" t="s">
@@ -5044,25 +5016,25 @@
       <c r="J162" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L162" s="7">
+      <c r="L162" s="6">
         <v>119.7934</v>
       </c>
-      <c r="M162" s="7">
+      <c r="M162" s="6">
         <v>37.1253</v>
       </c>
-      <c r="N162" s="9">
+      <c r="N162" s="2">
         <v>4500</v>
       </c>
-      <c r="O162" s="66" t="s">
+      <c r="O162" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P162" s="54"/>
+      <c r="P162" s="48"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="31">
+      <c r="A163" s="27">
         <v>141</v>
       </c>
-      <c r="B163" s="32">
+      <c r="B163" s="28">
         <v>44123</v>
       </c>
       <c r="C163" s="1">
@@ -5071,112 +5043,112 @@
       <c r="D163" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E163" s="58" t="s">
+      <c r="E163" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="6">
         <v>118.952</v>
       </c>
-      <c r="G163" s="7">
+      <c r="G163" s="6">
         <v>36.629</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L163" s="7">
+      <c r="L163" s="6">
         <v>118.9509</v>
       </c>
-      <c r="M163" s="7">
+      <c r="M163" s="6">
         <v>36.6298</v>
       </c>
-      <c r="O163" s="66" t="s">
+      <c r="O163" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="31"/>
-      <c r="B164" s="32"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="28"/>
       <c r="D164" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="6">
         <v>118.627</v>
       </c>
-      <c r="G164" s="7">
+      <c r="G164" s="6">
         <v>37.169</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L164" s="7">
+      <c r="L164" s="6">
         <v>118.6194</v>
       </c>
-      <c r="M164" s="7">
+      <c r="M164" s="6">
         <v>37.1724</v>
       </c>
-      <c r="N164" s="9">
+      <c r="N164" s="2">
         <v>400</v>
       </c>
-      <c r="O164" s="66" t="s">
+      <c r="O164" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="31"/>
-      <c r="B165" s="32"/>
+      <c r="A165" s="27"/>
+      <c r="B165" s="28"/>
       <c r="D165" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="6">
         <v>115.929</v>
       </c>
-      <c r="G165" s="7">
+      <c r="G165" s="6">
         <v>36.951</v>
       </c>
-      <c r="H165" s="7" t="s">
+      <c r="H165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L165" s="7">
+      <c r="L165" s="6">
         <v>115.9271</v>
       </c>
-      <c r="M165" s="7">
+      <c r="M165" s="6">
         <v>36.9539</v>
       </c>
-      <c r="N165" s="9">
+      <c r="N165" s="2">
         <v>54000</v>
       </c>
-      <c r="O165" s="66" t="s">
+      <c r="O165" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="31"/>
-      <c r="B166" s="32"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="28"/>
       <c r="D166" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E166" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="6">
         <v>116.163</v>
       </c>
-      <c r="G166" s="7">
+      <c r="G166" s="6">
         <v>35.415</v>
       </c>
       <c r="H166" s="2" t="s">
@@ -5185,51 +5157,51 @@
       <c r="J166" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L166" s="7">
+      <c r="L166" s="6">
         <v>116.1609</v>
       </c>
-      <c r="M166" s="7">
+      <c r="M166" s="6">
         <v>35.4154</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O166" s="66" t="s">
+      <c r="O166" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="31">
+      <c r="A167" s="27">
         <v>142</v>
       </c>
-      <c r="B167" s="32">
+      <c r="B167" s="28">
         <v>44124</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E167" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6">
         <v>116.211</v>
       </c>
-      <c r="G167" s="7">
+      <c r="G167" s="6">
         <v>37.106</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H167" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J167" s="7" t="s">
+      <c r="J167" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L167" s="7">
+      <c r="L167" s="6">
         <v>116.2099</v>
       </c>
-      <c r="M167" s="7">
+      <c r="M167" s="6">
         <v>37.1058</v>
       </c>
-      <c r="N167" s="9">
+      <c r="N167" s="2">
         <v>37000</v>
       </c>
       <c r="O167" t="s">
@@ -5237,75 +5209,75 @@
       </c>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="31">
+      <c r="A168" s="27">
         <v>143</v>
       </c>
-      <c r="B168" s="32">
+      <c r="B168" s="28">
         <v>44125</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E168" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="6">
         <v>116.458</v>
       </c>
-      <c r="G168" s="7">
+      <c r="G168" s="6">
         <v>36.484</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J168" s="7" t="s">
+      <c r="J168" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L168" s="7">
+      <c r="L168" s="6">
         <v>116.4539</v>
       </c>
-      <c r="M168" s="7">
+      <c r="M168" s="6">
         <v>36.4883</v>
       </c>
-      <c r="N168" s="9">
+      <c r="N168" s="2">
         <v>16800</v>
       </c>
-      <c r="O168" s="66" t="s">
+      <c r="O168" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="31">
+      <c r="A169" s="27">
         <v>144</v>
       </c>
-      <c r="B169" s="32">
+      <c r="B169" s="28">
         <v>44126</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E169" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="6">
         <v>117.853</v>
       </c>
-      <c r="G169" s="7">
+      <c r="G169" s="6">
         <v>35.433</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J169" s="7" t="s">
+      <c r="J169" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L169" s="7">
+      <c r="L169" s="6">
         <v>117.8537</v>
       </c>
-      <c r="M169" s="7">
+      <c r="M169" s="6">
         <v>35.4314</v>
       </c>
-      <c r="N169" s="9">
+      <c r="N169" s="2">
         <v>500</v>
       </c>
       <c r="O169" t="s">
@@ -5313,40 +5285,43 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="31">
+      <c r="A170" s="27">
         <v>145</v>
       </c>
-      <c r="B170" s="32">
+      <c r="B170" s="28">
         <v>44127</v>
       </c>
-      <c r="H170" s="62"/>
+      <c r="D170" s="1">
+        <v>111</v>
+      </c>
+      <c r="H170" s="56"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="31">
+      <c r="A171" s="27">
         <v>146</v>
       </c>
-      <c r="B171" s="32">
+      <c r="B171" s="28">
         <v>44128</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="31">
+      <c r="A172" s="27">
         <v>147</v>
       </c>
-      <c r="B172" s="32">
+      <c r="B172" s="28">
         <v>44129</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="31">
+      <c r="A173" s="27">
         <v>148</v>
       </c>
-      <c r="B173" s="32">
+      <c r="B173" s="28">
         <v>44130</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="32">
+      <c r="B174" s="28">
         <v>44131</v>
       </c>
     </row>
@@ -5414,13 +5389,13 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="17.2545454545455" customWidth="1"/>
-    <col min="10" max="10" width="24.2545454545455" customWidth="1"/>
+    <col min="9" max="9" width="17.2583333333333" customWidth="1"/>
+    <col min="10" max="10" width="24.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5448,10 +5423,10 @@
       <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5468,7 +5443,7 @@
       <c r="D2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="4">
@@ -5480,10 +5455,10 @@
       <c r="H2" s="5">
         <v>39000</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5491,10 +5466,10 @@
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>117.925</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>34.677</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5503,52 +5478,52 @@
       <c r="E3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>117.9245</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>34.6762</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="2">
         <v>2664</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>120.214</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>36.435</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5557,19 +5532,19 @@
       <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>120.2129</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>36.4328</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <v>9400</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5577,10 +5552,10 @@
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>115.533</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>36.749</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5589,84 +5564,84 @@
       <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>115.5173</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>36.7508</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="2">
         <v>13500</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>115.5281</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>36.7549</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>115.533</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>36.749</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>115.5263</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>36.7377</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="15"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>115.887</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>35.065</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5675,19 +5650,19 @@
       <c r="E11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>115.9443</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>35.0341</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="2">
         <v>2000</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5695,29 +5670,29 @@
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>117.325</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>36.955</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>117.3245</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>36.954</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="2">
         <v>13000</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5725,29 +5700,29 @@
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>116.027</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>35.71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>116.0277</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>35.6979</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="2">
         <v>1300</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5755,29 +5730,29 @@
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>117.278</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>35.843</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>117.2713</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>35.8423</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="2">
         <v>10000</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5785,10 +5760,10 @@
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>115.713</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>35.735</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5797,19 +5772,19 @@
       <c r="E15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>115.7091</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>36.954</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="2">
         <v>3000</v>
       </c>
       <c r="I15" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5817,10 +5792,10 @@
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>114.86</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>35.08</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5829,19 +5804,19 @@
       <c r="E16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>114.8858</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>35.1186</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="2">
         <v>77400</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5849,31 +5824,31 @@
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>119.543</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>36.204</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>119.5429</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>36.2039</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="2">
         <v>48910</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5896,19 +5871,19 @@
       <c r="F21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5928,22 +5903,22 @@
       <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>117.0458</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>35.0974</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>39000</v>
       </c>
       <c r="J22" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="12" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5954,10 +5929,10 @@
       <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>117.925</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>34.677</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -5966,19 +5941,19 @@
       <c r="F23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>117.9245</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>34.6762</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>2664</v>
       </c>
       <c r="J23" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="12" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5989,10 +5964,10 @@
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>120.214</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>36.435</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -6001,33 +5976,33 @@
       <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>120.2129</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>36.4328</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>9400</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>115.533</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>36.749</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -6036,80 +6011,80 @@
       <c r="F25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>115.5173</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>36.7508</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>13500</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>115.5281</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>36.7549</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="11"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>115.533</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>36.749</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="11"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>115.5263</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>36.7377</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="15"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
@@ -6118,10 +6093,10 @@
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>115.887</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>35.065</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6130,19 +6105,19 @@
       <c r="F29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>115.9443</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>35.0341</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>2000</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6153,29 +6128,29 @@
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>117.325</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>36.955</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>117.3245</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>36.954</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>13000</v>
       </c>
       <c r="J30" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6186,29 +6161,29 @@
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>116.027</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>35.71</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>116.0277</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>35.6979</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>1300</v>
       </c>
       <c r="J31" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6219,29 +6194,29 @@
       <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>117.278</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>35.843</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>117.2713</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>35.8423</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>10000</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6252,10 +6227,10 @@
       <c r="B33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>115.713</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>35.735</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6264,19 +6239,19 @@
       <c r="F33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>115.7091</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <v>36.954</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>3000</v>
       </c>
       <c r="J33" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6287,10 +6262,10 @@
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>114.86</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>35.08</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -6299,19 +6274,19 @@
       <c r="F34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>114.8858</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>35.1186</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>77400</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6322,31 +6297,31 @@
       <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>119.543</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>36.204</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>119.5429</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>36.2039</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>48910</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6382,7 +6357,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
